--- a/Week5/NW_Risk_Register.xlsx
+++ b/Week5/NW_Risk_Register.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickd\Documents\GitHub\lab-8-final-nwhiting\Week3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickd\Documents\GitHub\lab-8-final-nwhiting\Week5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECB193C-1321-40E0-8C51-B013C4C82C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED5626C-554C-4EE1-B792-904FD81B2C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Item</t>
   </si>
@@ -116,7 +116,13 @@
     <t>wish to propose project paramter change</t>
   </si>
   <si>
-    <t>Professor accepted proposal, could cause unique issues later on.</t>
+    <t>No longer wished to implement requested change, could cause too much discrepancy.</t>
+  </si>
+  <si>
+    <t>May not be able to complete all project functionality.</t>
+  </si>
+  <si>
+    <t>Because no More time will be given after semester is over, project will have to be submitted as is.</t>
   </si>
 </sst>
 </file>
@@ -310,6 +316,9 @@
                 <c:pt idx="5">
                   <c:v>40</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -335,6 +344,9 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
@@ -1553,7 +1565,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1612,7 +1624,7 @@
         <v>1400</v>
       </c>
       <c r="E2" s="2">
-        <v>44273</v>
+        <v>44638</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>9</v>
@@ -1639,7 +1651,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="2">
-        <v>44273</v>
+        <v>44638</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>17</v>
@@ -1666,7 +1678,7 @@
         <v>4900</v>
       </c>
       <c r="E4" s="2">
-        <v>44273</v>
+        <v>44638</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>19</v>
@@ -1693,7 +1705,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="2">
-        <v>44273</v>
+        <v>44638</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>9</v>
@@ -1750,22 +1762,41 @@
         <v>44565</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1">
+        <v>20</v>
+      </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="E8" s="2">
+        <v>44665</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D9" s="1">
